--- a/biology/Mycologie/Neottia/Neottia.xlsx
+++ b/biology/Mycologie/Neottia/Neottia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neottia (les néotties et les listères) est un genre de plantes herbacées vivaces de la famille des Orchidaceae.
 Synonyme (non accepté par ITIS)
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (3 nov. 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (3 nov. 2018) :
 Neottia auriculata (Wiegand) Szlach.
 Neottia banksiana (Lind.) Rchb. f.
 Neottia bifolia (Raf.) Baumbach - Listère du Sud (originaire du sud-est du Canada et de l'est des États-Unis)
@@ -552,7 +566,9 @@
           <t>Autre espèce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Neottia nidus-avis (L.) Rich. - Néottie nid d'oiseau (eurasiatique). C'est l'espèce type.</t>
         </is>
